--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26233.04634505884</v>
+        <v>5220376.222666706</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26233.04634505884</v>
+        <v>5220376.222666706</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33384.49699302071</v>
+        <v>2272628.994431256</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33384.49699302071</v>
+        <v>2272628.994431256</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418795420.0884</v>
+        <v>56221458.72733195</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12345.42785732919</v>
+        <v>1291557.14879485</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23926.487106639</v>
+        <v>2456480.9111025</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35507.54635594884</v>
+        <v>3621404.673410155</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48795.30512433026</v>
+        <v>4733909.716727578</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61996.62591291228</v>
+        <v>5828922.057014762</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75197.55074189851</v>
+        <v>6923855.601342343</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88640.40688401587</v>
+        <v>8029032.620417399</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>102031.7882786585</v>
+        <v>9123966.164744981</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>114958.8446374432</v>
+        <v>10210946.19938315</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>127662.4733796782</v>
+        <v>11324952.58657474</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140366.1021219132</v>
+        <v>12438958.97376632</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152280.5421830215</v>
+        <v>13553701.26561457</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>164282.8561199284</v>
+        <v>14685650.51718905</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>176874.6261791844</v>
+        <v>15759989.3183723</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>189844.910555063</v>
+        <v>16745827.80023311</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>228</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,10 +27144,10 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>223</v>
@@ -27156,7 +27156,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>130</v>
